--- a/plan/chievements  bags.xlsx
+++ b/plan/chievements  bags.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>救赎之旅</t>
   </si>
@@ -62,6 +62,30 @@
   </si>
   <si>
     <t>PROWLER</t>
+  </si>
+  <si>
+    <t>机械迷城</t>
+  </si>
+  <si>
+    <t>沙漠之舟</t>
+  </si>
+  <si>
+    <t>追光者</t>
+  </si>
+  <si>
+    <t>不灭之火</t>
+  </si>
+  <si>
+    <t>长眠</t>
+  </si>
+  <si>
+    <t>女装大佬</t>
+  </si>
+  <si>
+    <t>头发浓密</t>
+  </si>
+  <si>
+    <t>程序之光</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1046,13 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1">
@@ -1159,44 +1186,68 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">

--- a/plan/chievements  bags.xlsx
+++ b/plan/chievements  bags.xlsx
@@ -4,37 +4,91 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18455" windowHeight="10524"/>
+    <workbookView windowWidth="8724" windowHeight="8424"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>救赎之旅</t>
   </si>
   <si>
+    <t>追光者</t>
+  </si>
+  <si>
+    <t>众彩纷呈</t>
+  </si>
+  <si>
+    <t>机械迷城</t>
+  </si>
+  <si>
     <t>赴死之人</t>
   </si>
   <si>
-    <t>众彩纷呈</t>
+    <t>Das   Parfum</t>
+  </si>
+  <si>
+    <t>长眠</t>
   </si>
   <si>
     <t>过客而已</t>
   </si>
   <si>
+    <t>说书人</t>
+  </si>
+  <si>
+    <t>perfume</t>
+  </si>
+  <si>
+    <t>SAVER</t>
+  </si>
+  <si>
     <t>沙海之歌</t>
   </si>
   <si>
     <t>砂之旅人</t>
   </si>
   <si>
+    <t>女装大佬</t>
+  </si>
+  <si>
+    <t>焚书者</t>
+  </si>
+  <si>
+    <t>不灭之火</t>
+  </si>
+  <si>
+    <t>黯然</t>
+  </si>
+  <si>
+    <t>头发浓密</t>
+  </si>
+  <si>
+    <t>PROWLER</t>
+  </si>
+  <si>
+    <t>行不胜衣</t>
+  </si>
+  <si>
+    <t>程序之光</t>
+  </si>
+  <si>
+    <t>沙漠之舟</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Das </t>
     </r>
     <r>
@@ -49,43 +103,7 @@
     </r>
   </si>
   <si>
-    <t>perfume</t>
-  </si>
-  <si>
-    <t>说书人</t>
-  </si>
-  <si>
-    <t>焚书者</t>
-  </si>
-  <si>
-    <t>SAVER</t>
-  </si>
-  <si>
-    <t>PROWLER</t>
-  </si>
-  <si>
-    <t>机械迷城</t>
-  </si>
-  <si>
-    <t>沙漠之舟</t>
-  </si>
-  <si>
-    <t>追光者</t>
-  </si>
-  <si>
-    <t>不灭之火</t>
-  </si>
-  <si>
-    <t>长眠</t>
-  </si>
-  <si>
-    <t>女装大佬</t>
-  </si>
-  <si>
-    <t>头发浓密</t>
-  </si>
-  <si>
-    <t>程序之光</t>
+    <t>一念深渊</t>
   </si>
 </sst>
 </file>
@@ -93,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +131,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -120,41 +191,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,24 +214,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,8 +244,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,45 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,25 +291,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,85 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,19 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,43 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +482,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,6 +565,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -499,223 +582,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,18 +1054,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="19.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1064,19 +1075,43 @@
       <c r="C1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1086,46 +1121,88 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" ht="14.4" spans="1:3">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:8">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" ht="14.4" spans="1:3">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:8">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" ht="24.6" spans="1:3">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="14.4" spans="1:3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1136,7 +1213,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1158,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1180,7 +1257,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -1191,7 +1268,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1199,7 +1276,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1207,7 +1284,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1223,7 +1300,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1231,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1239,7 +1316,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1247,21 +1324,30 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
